--- a/4th_5team_요구사항정의서.xlsx
+++ b/4th_5team_요구사항정의서.xlsx
@@ -34,7 +34,7 @@
     <t>수용여부</t>
   </si>
   <si>
-    <t>선택 데이터</t>
+    <t>비고/ 협의</t>
   </si>
   <si>
     <t>Main</t>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -511,7 +511,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -531,6 +531,7 @@
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -555,9 +556,6 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -565,9 +563,7 @@
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -580,8 +576,9 @@
     <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -949,23 +946,23 @@
       <c r="B5" s="19">
         <v>2.0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -987,23 +984,23 @@
       <c r="B6" s="19">
         <v>3.0</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1021,23 +1018,23 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="27"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="19">
         <v>4.0</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1055,27 +1052,27 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="19">
         <v>7.0</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1093,7 +1090,7 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="31">
         <v>9.0</v>
       </c>
@@ -1131,11 +1128,11 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="12">
         <v>10.0</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1165,27 +1162,27 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="19">
         <v>11.0</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1203,16 +1200,16 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="31">
         <v>12.0</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="35" t="s">
         <v>34</v>
       </c>
@@ -1237,21 +1234,21 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="12">
         <v>13.0</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="15"/>
       <c r="I13" s="18"/>
       <c r="J13" s="2"/>
@@ -1271,27 +1268,27 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="19">
         <v>14.0</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1309,23 +1306,23 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="19">
         <v>15.0</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1343,27 +1340,27 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="27"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="19">
         <v>16.0</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1381,23 +1378,23 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="19">
         <v>17.0</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="29"/>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="24" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1415,25 +1412,25 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="19">
         <v>18.0</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="21" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1451,27 +1448,27 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="19">
         <v>19.0</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1489,23 +1486,23 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="19">
         <v>20.0</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1523,23 +1520,23 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="19">
         <v>21.0</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="21" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="24" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1557,20 +1554,20 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="31">
         <v>22.0</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="41" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="36"/>
@@ -26941,7 +26938,7 @@
       <c r="X997" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
@@ -26953,14 +26950,16 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C13:C22"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C4:C9"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F19:F22"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/4th_5team_요구사항정의서.xlsx
+++ b/4th_5team_요구사항정의서.xlsx
@@ -1391,8 +1391,8 @@
       <c r="G17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="30" t="s">
-        <v>22</v>
+      <c r="H17" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="2"/>
